--- a/Proyectos/2015/12/P1370 - HR, Enrique Peña Soto _MO/Planeación/Plan_proyecto.xlsx
+++ b/Proyectos/2015/12/P1370 - HR, Enrique Peña Soto _MO/Planeación/Plan_proyecto.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="989"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="989" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Presentación" sheetId="1" r:id="rId1"/>
@@ -650,15 +650,6 @@
     <t>Alto</t>
   </si>
   <si>
-    <t>Alfonso Ordoñez</t>
-  </si>
-  <si>
-    <t>callto:9933535740</t>
-  </si>
-  <si>
-    <t>alfonsoo10@hotmail.com</t>
-  </si>
-  <si>
     <t>https://contpaqi911.bitrix24.com/crm/deal/show/14478/</t>
   </si>
   <si>
@@ -672,6 +663,15 @@
   </si>
   <si>
     <t>Arturo Moctezuma</t>
+  </si>
+  <si>
+    <t>epmx@prodigy.net.mx</t>
+  </si>
+  <si>
+    <t>Miguel Angel Pacheco</t>
+  </si>
+  <si>
+    <t>callto:5526437351</t>
   </si>
 </sst>
 </file>
@@ -2001,7 +2001,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMH9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:C3"/>
     </sheetView>
   </sheetViews>
@@ -2053,7 +2053,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="148" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C3" s="148"/>
     </row>
@@ -4419,7 +4419,7 @@
     </row>
     <row r="28" spans="1:4" ht="53.25" customHeight="1">
       <c r="A28" s="151" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B28" s="152"/>
     </row>
@@ -4437,11 +4437,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A29:B29"/>
@@ -4451,6 +4446,11 @@
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A28" r:id="rId1"/>
@@ -4464,8 +4464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -4552,13 +4552,13 @@
         <v>55</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C6" s="25">
         <v>3316367365</v>
       </c>
       <c r="D6" s="145" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E6" s="28" t="s">
         <v>57</v>
@@ -4643,13 +4643,13 @@
         <v>71</v>
       </c>
       <c r="B13" s="146" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E13" s="31" t="s">
         <v>72</v>
@@ -4721,7 +4721,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -9033,7 +9033,7 @@
         <v>88</v>
       </c>
       <c r="B6" s="49" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C6" s="46" t="s">
         <v>52</v>

--- a/Proyectos/2015/12/P1370 - HR, Enrique Peña Soto _MO/Planeación/Plan_proyecto.xlsx
+++ b/Proyectos/2015/12/P1370 - HR, Enrique Peña Soto _MO/Planeación/Plan_proyecto.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Presentación" sheetId="1" state="visible" r:id="rId2"/>
@@ -31,6 +31,7 @@
     <definedName function="false" hidden="false" localSheetId="4" name="Complej." vbProcedure="false">#ref!</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="Complej." vbProcedure="false">#ref!</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area" vbProcedure="false">'Plan Riesgos'!$A$1:$F$22</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area_0" vbProcedure="false">'Plan Riesgos'!$A$1:$F$22</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
@@ -1851,7 +1852,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="D18 B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5"/>
@@ -1986,8 +1987,8 @@
   </sheetPr>
   <dimension ref="A1:AMI30"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A35" activeCellId="0" sqref="A35"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5"/>
@@ -4207,15 +4208,19 @@
         <v>42352</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="18" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A18" s="15" t="s">
         <v>33</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="8"/>
+      <c r="C18" s="16" t="n">
+        <v>42348</v>
+      </c>
+      <c r="D18" s="16" t="n">
+        <v>42348</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A19" s="15"/>
@@ -4330,7 +4335,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+      <selection pane="topLeft" activeCell="C14" activeCellId="1" sqref="D18 C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4547,6 +4552,27 @@
       <c r="C17" s="37"/>
       <c r="D17" s="37"/>
       <c r="E17" s="38"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0"/>
+      <c r="B18" s="0"/>
+      <c r="C18" s="0"/>
+      <c r="D18" s="0"/>
+      <c r="E18" s="0"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0"/>
+      <c r="B19" s="0"/>
+      <c r="C19" s="0"/>
+      <c r="D19" s="0"/>
+      <c r="E19" s="0"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0"/>
+      <c r="B20" s="0"/>
+      <c r="C20" s="0"/>
+      <c r="D20" s="0"/>
+      <c r="E20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="39" t="s">
@@ -4594,7 +4620,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B30" activeCellId="0" sqref="B30"/>
+      <selection pane="topLeft" activeCell="B30" activeCellId="1" sqref="D18 B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4722,7 +4748,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="A5" activeCellId="1" sqref="D18 A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -8990,7 +9016,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+      <selection pane="topLeft" activeCell="E5" activeCellId="1" sqref="D18 E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -9238,8 +9264,8 @@
   </sheetPr>
   <dimension ref="A1:JA41"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C6" activeCellId="1" sqref="D18 C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>

--- a/Proyectos/2015/12/P1370 - HR, Enrique Peña Soto _MO/Planeación/Plan_proyecto.xlsx
+++ b/Proyectos/2015/12/P1370 - HR, Enrique Peña Soto _MO/Planeación/Plan_proyecto.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="989" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="989" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Presentación" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <definedName name="Excel_BuiltIn_Print_Area_2">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_4">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -2002,7 +2002,7 @@
   <dimension ref="A1:AMH9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C3"/>
+      <selection activeCell="B9" sqref="B9:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="22.5"/>
@@ -2129,8 +2129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMI30"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="22.5" outlineLevelRow="1"/>
@@ -4357,8 +4357,12 @@
       <c r="B18" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="7"/>
+      <c r="C18" s="14">
+        <v>42347</v>
+      </c>
+      <c r="D18" s="14">
+        <v>42348</v>
+      </c>
     </row>
     <row r="19" spans="1:4" outlineLevel="1">
       <c r="A19" s="13"/>
@@ -4437,6 +4441,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A29:B29"/>
@@ -4446,11 +4455,6 @@
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A28" r:id="rId1"/>
@@ -4464,7 +4468,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -9121,7 +9125,7 @@
   <dimension ref="A1:AMI15"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
